--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.089999999999995</v>
+        <v>6.252699999999995</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.804600000000001</v>
+        <v>-7.620899999999999</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.389899999999995</v>
+        <v>-7.062699999999998</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.443800000000002</v>
+        <v>5.848699999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.646400000000001</v>
+        <v>-8.163900000000005</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.8094</v>
+        <v>-22.63850000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>5.304700000000001</v>
+        <v>5.2535</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.242100000000004</v>
+        <v>8.833600000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.453999999999992</v>
+        <v>-8.68099999999999</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.812399999999998</v>
+        <v>-7.693799999999998</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.191700000000005</v>
+        <v>5.240100000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.589199999999994</v>
+        <v>-8.126799999999992</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
